--- a/static/data/python/sample exams/Clinton/Clinton_exam_sample_002.xlsx
+++ b/static/data/python/sample exams/Clinton/Clinton_exam_sample_002.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(295004AK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Loss of breaker protection</t>
+  </si>
+  <si>
+    <t>(295005AA1.07) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(295025EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(295006AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Recirculation pump speed reduction</t>
+  </si>
+  <si>
+    <t>(295030EK2.04) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
   </si>
   <si>
     <t>(600000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 24) PLANT FIRE ON SITE: (CFR: 41.8 / 41.10 / 45.3) Firefighting methods for each type of fire</t>
   </si>
   <si>
-    <t>(295031EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295006AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Reactor power response</t>
-  </si>
-  <si>
-    <t>(295025EA1.06) Ability to operate and/or monitor the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) Isolation condenser (Nine Mile Point 1, Dresden)</t>
-  </si>
-  <si>
-    <t>(295019AK2.21) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Recirculation system</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295026EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Primary containment integrity</t>
-  </si>
-  <si>
-    <t>(295005AA2.08) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Electrical distribution status</t>
-  </si>
-  <si>
-    <t>(295018AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Increasing cooling water flow to heat exchangers</t>
-  </si>
-  <si>
-    <t>(295016AA1.07) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) Control room/local control transfer mechanisms</t>
-  </si>
-  <si>
-    <t>(295030EK2.02) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) RCIC</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(295023AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Radiation exposure hazards</t>
-  </si>
-  <si>
-    <t>(700000AA2.06) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Generator frequency limitations</t>
-  </si>
-  <si>
-    <t>(295004AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Load shedding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295037EA1.10) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) Systems used for alternate boron injection </t>
-  </si>
-  <si>
-    <t>(295003AK2.07) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) DC electrical distribution system</t>
-  </si>
-  <si>
-    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
-  </si>
-  <si>
-    <t>(295021AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Natural circulation</t>
-  </si>
-  <si>
-    <t>(295011AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Increased containment cooling</t>
-  </si>
-  <si>
-    <t>(295002AA1.12) Ability to operate and/or monitor the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.7 / 45.6) Condenser air removal system</t>
-  </si>
-  <si>
-    <t>(295009AK2.08) Knowledge of the relationship between the (APE 9) LOW REACTOR WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) CRD system</t>
-  </si>
-  <si>
-    <t>(295007) (APE 7) HIGH REACTOR PRESSURE (G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295022AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.8 to 41.10) Reactivity control</t>
-  </si>
-  <si>
-    <t>(295020AA2.01) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Drywell/containment pressure</t>
-  </si>
-  <si>
-    <t>(209001K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Primary containment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(215005A3.01) Ability to monitor automatic operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.7 / 45.7) Four rod display </t>
-  </si>
-  <si>
-    <t>(218000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.5 / 45.3) ADS logic operation</t>
-  </si>
-  <si>
-    <t>(205000K4.05) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) Cooldown rate</t>
-  </si>
-  <si>
-    <t>(215003K3.01) Knowledge of the effect that a loss or malfunction of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RPS</t>
-  </si>
-  <si>
-    <t>(510000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.5 / 45.5) CCW heat exchanger outlet temperature</t>
-  </si>
-  <si>
-    <t>(300000K2.01) (SF8 IA) INSTRUMENT AIR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Instrument air compressor</t>
-  </si>
-  <si>
-    <t>(217000K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.7 / 45.7) High suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(262001A4.04) Ability to manually operate and/or monitor the (SF6 AC) AC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Synchronizing of AC sources</t>
-  </si>
-  <si>
-    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(264000A2.09) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of safety bus</t>
-  </si>
-  <si>
-    <t>(212000K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 RPS) REACTOR PROTECTION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Primary containment and auxiliaries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(239002A3.02) Ability to monitor automatic operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.7 / 45.7) SRV operation on high reactor pressure </t>
-  </si>
-  <si>
-    <t>(209002K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(203000K4.06) Knowledge of (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) No-suction path pump trip</t>
+    <t>(295016AA1.13) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) Shutdown cooling system (RHR shutdown cooling mode)</t>
+  </si>
+  <si>
+    <t>(295021AA2.05) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor vessel metal temperature</t>
+  </si>
+  <si>
+    <t>(700000AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor and turbine trip criteria</t>
+  </si>
+  <si>
+    <t>(295026EK2.07) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) HPCI</t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(295003AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Battery capacity</t>
+  </si>
+  <si>
+    <t>(295023AA1.06) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Nuclear instrumentation</t>
+  </si>
+  <si>
+    <t>(295024EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295027EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295038EK2.14) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Main and reheat steam system</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295001AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Thermal limits</t>
+  </si>
+  <si>
+    <t>(295031EA1.10) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Control rod drive hydraulic system</t>
+  </si>
+  <si>
+    <t>(295022AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.5 / 45.6) Closing flow control valve</t>
+  </si>
+  <si>
+    <t>(295002AK2.08) Knowledge of the relationship between the (APE 2) LOSS OF MAIN CONDENSER VACUUM and the following systems or components: (CFR: 41.7 / 45.8) Circulating water system</t>
+  </si>
+  <si>
+    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295014AK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.8 to 41.10) Fuel thermal limits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295017AA1.07) Ability to operate and/or monitor the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.7 / 45.6) Process radiation monitoring system </t>
+  </si>
+  <si>
+    <t>(295034EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Ventilation radiation levels</t>
+  </si>
+  <si>
+    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
+  </si>
+  <si>
+    <t>(300000K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.8 / 45.7) Heat exchangers and condensers</t>
+  </si>
+  <si>
+    <t>(215004K2.02) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Detector drive modules</t>
+  </si>
+  <si>
+    <t>(217000K5.10) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.5 / 45.3) Reactor level control</t>
+  </si>
+  <si>
+    <t>(215003A2.06) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Faulty range switch</t>
+  </si>
+  <si>
+    <t>(209001A3.02) Ability to monitor automatic operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Pump start</t>
+  </si>
+  <si>
+    <t>(259002A4.08) Ability to manually operate and/or monitor the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Manually initiate FWCI</t>
+  </si>
+  <si>
+    <t>(209002A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) System flow</t>
+  </si>
+  <si>
+    <t>(264000K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant ventilation systems</t>
+  </si>
+  <si>
+    <t>(262001K3.02) Knowledge of the effect that a loss or malfunction of the (SF6 AC) AC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Emergency generators</t>
+  </si>
+  <si>
+    <t>(510000K4.08) Knowledge of (SF4 SWS*) SERVICE WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Alternate cooling water supply to FPCCU heat exchangers</t>
+  </si>
+  <si>
+    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (291002K1.24) SENSORS AND DETECTORS (CFR: 41.7) (RADIATION DETECTION) Use of portable and personal radiation monitoring instruments</t>
+  </si>
+  <si>
+    <t>(261000K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.7 / 45.7) DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(239002K2.01) (SF3 SRV) SAFETY RELIEF VALVES Knowledge of electrical power supplies to the following: (CFR: 41.7) SRV solenoids</t>
+  </si>
+  <si>
+    <t>(262002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.5 / 45.3) Static switch/inverter operation</t>
+  </si>
+  <si>
+    <t>(218000A2.03) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of pneumatic supply to ADS valves</t>
+  </si>
+  <si>
+    <t>(215005A3.06) Ability to monitor automatic operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.7 / 45.7) Maximum disagreement between flow comparator channels</t>
+  </si>
+  <si>
+    <t>(400000A4.01) Ability to manually operate and/or monitor the (SF8 CCS) COMPONENT COOLING WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) CCW indications and control</t>
+  </si>
+  <si>
+    <t>(205000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.5 / 45.5) SDC/RHR pump flow</t>
+  </si>
+  <si>
+    <t>(211000K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RWCU system</t>
   </si>
   <si>
     <t>(263000K3.03) Knowledge of the effect that a loss or malfunction of the (SF6 DC) DC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Systems with DC components (e.g., valves, motors, solenoids, instruments)</t>
   </si>
   <si>
-    <t>(223002A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.5 / 45.5) Containment/drywell pressure</t>
-  </si>
-  <si>
-    <t>(211000K2.03) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Heater power</t>
-  </si>
-  <si>
-    <t>(215004K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.7 / 45.7) Detector drive motor</t>
-  </si>
-  <si>
-    <t>(262002A4.01) Ability to manually operate and/or monitor the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) in the control room: (CFR: 41.7 / 45.5 to 45.8) Transfer of power sources</t>
-  </si>
-  <si>
-    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (291002K1.04) SENSORS AND DETECTORS (CFR: 41.7) (FLOW) Modes of failure</t>
-  </si>
-  <si>
-    <t>(259002A2.01) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of any number of main steam flow inputs</t>
-  </si>
-  <si>
-    <t>(209001K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Condensate system</t>
-  </si>
-  <si>
-    <t>(215005A3.06) Ability to monitor automatic operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.7 / 45.7) Maximum disagreement between flow comparator channels</t>
-  </si>
-  <si>
-    <t>(218000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.5 / 45.3) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(205000K4.04) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) Adequate pump NPSH</t>
-  </si>
-  <si>
-    <t>(290001) (SF5 SC) SECONDARY CONTAINMENT (G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(271000A2.11) Ability to (a) predict the impacts of the following on the (SF9 OG) OFFGAS SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6 / 45.8) Offgas system low flow</t>
-  </si>
-  <si>
-    <t>(226001K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(223001A3.04) Ability to monitor automatic operation of the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES including: (CFR: 41.7 / 45.7) Containment/drywell response during LOCA</t>
-  </si>
-  <si>
-    <t>(216000K5.14) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION: (CFR: 41.5 / 45.3) Density compensation</t>
-  </si>
-  <si>
-    <t>(201005K4.04) Knowledge of (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) design features and/or interlocks that provide for the following: (CFR: 41.5 to 41.7) Rod insertion block signals</t>
-  </si>
-  <si>
-    <t>(204000K3.03) Knowledge of the effect that a loss or malfunction of the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(230000A1.11) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE including: (CFR: 41.5 / 45.5) Suppression chamber air temperature</t>
-  </si>
-  <si>
-    <t>(219000K2.01) (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE Knowledge of electrical power supplies to the following: (CFR: 41.7) Valves</t>
-  </si>
-  <si>
-    <t>(239001K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM: (CFR: 41.7 / 45.7) Moisture separator/reheaters</t>
-  </si>
-  <si>
-    <t>(510001A4.03) Ability to manually operate and/or monitor the (SF8 CWS*) CIRCULATING WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Cooling tower basin level</t>
-  </si>
-  <si>
-    <t>(G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(292008K1.29) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (NORMAL REACTOR SHUTDOWN) Define decay heat</t>
-  </si>
-  <si>
-    <t>(292002K1.11) NEUTRON LIFE CYCLE (CFR: 41.1) Define reactivity</t>
-  </si>
-  <si>
-    <t>(292005K1.09) CONTROL RODS (CFR: 41.1) Explain direction of change in the magnitude of CRW for a change in moderator temperature, void fraction, control rod density, and xenon</t>
-  </si>
-  <si>
-    <t>(293010K1.05) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the effect of fast neutron irradiation on reactor vessel metals</t>
-  </si>
-  <si>
-    <t>(293009K1.19) CORE THERMAL LIMITS (CFR: 41.14) (MCPR) Explain the basis of the limiting condition for CPR</t>
-  </si>
-  <si>
-    <t>(293004K1.17) THERMODYNAMIC PROCESS (CFR: 41.14) (THROTTLING AND THE THROTTLING PROCESS) Determine the exit conditions for a throttling process based on the use of steam or water</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(600000AA2.13) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Need for emergency plant shutdown </t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
+    <t>(212000K4.12) Knowledge of (SF7 RPS) REACTOR PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Bypassing SCRAM signals</t>
+  </si>
+  <si>
+    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.1.27) CONDUCT OF OPERATIONS Knowledge of system purpose and/or function (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(300000K6.15) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.8 / 45.7) Low instrument air pressure</t>
+  </si>
+  <si>
+    <t>(215004K2.01) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) SRMS channels/detectors</t>
+  </si>
+  <si>
+    <t>(217000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.5 / 45.3) Flow control</t>
+  </si>
+  <si>
+    <t>(290001K3.02) Knowledge of the effect that a loss or malfunction of the (SF5 SC) SECONDARY CONTAINMENT will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Secondary containment pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(290002K4.01) Knowledge of (SF4 RVI) REACTOR VESSEL INTERNALS design features and/or interlocks that provide for the following: (CFR: 41.7) 2/3 core coverage following a design-basis LOCA </t>
+  </si>
+  <si>
+    <t>(288000) (SF9 PVS) PLANT VENTILATION SYSTEMS  (291006K1.09) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Definition of thermal shock</t>
+  </si>
+  <si>
+    <t>(259001K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 FWS) FEEDWATER SYSTEM: (CFR: 41.7 / 45.7) Reactor feedwater pump lube oil system</t>
+  </si>
+  <si>
+    <t>(204000K2.02) (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor-operated valves</t>
+  </si>
+  <si>
+    <t>(241000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM: (CFR: 41.5 / 45.3) Turbine inlet pressure vs. reactor pressure</t>
+  </si>
+  <si>
+    <t>(216000A2.09) Ability to (a) predict the impacts of the following on the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Jet pump malfunction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(233000A3.02) Ability to monitor automatic operation of the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP including: (CFR: 41.7 / 45.7) Pump trip(s) </t>
+  </si>
+  <si>
+    <t>(239003A4.04) Ability to manually operate and/or monitor the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Dilution air flows</t>
+  </si>
+  <si>
+    <t>(219000A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE including: (CFR: 41.5 / 45.5) Condensate storage tank level</t>
+  </si>
+  <si>
+    <t>(290003K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 CRV) CONTROL ROOM VENTILATION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station\u2019s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
+  </si>
+  <si>
+    <t>(292001K1.02) NEUTRONS (CFR: 41.1) Define prompt and delayed neutrons</t>
+  </si>
+  <si>
+    <t>(292003K1.07) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain prompt critical, prompt jump, and prompt drop</t>
+  </si>
+  <si>
+    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
+  </si>
+  <si>
+    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
+  </si>
+  <si>
+    <t>(293007K1.07) HEAT TRANSFER (CFR: 41.14) (HEAT EXCHANGERS) Describe how the presence of gases or steam can</t>
+  </si>
+  <si>
+    <t>(293010K1.06) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the operational concerns of uncontrolled cooldown</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(295005AA2.04) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.4.38) EMERGENCY PROCEDURES / PLAN Ability to take actions required by the facility emergency plan implementing procedures, including supporting or acting as emergency coordinator (CFR: 41.10 / 43.5 / 45.11)</t>
   </si>
   <si>
     <t>(295006AA2.06) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Cause of reactor SCRAM</t>
   </si>
   <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.1.42) CONDUCT OF OPERATIONS Knowledge of new and spent fuel movement procedures (SRO Only) (CFR: 43.7 / 45.13)</t>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
   </si>
   <si>
     <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
   </si>
   <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295008) (APE 8) HIGH REACTOR WATER LEVEL (G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(500000EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.10 / 43.5 / 45.13) Hydrogen monitoring availability</t>
-  </si>
-  <si>
-    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(510000A2.08) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Abnormal intake water level</t>
-  </si>
-  <si>
-    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
-  </si>
-  <si>
-    <t>(217000A2.03) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve closures due to malfunction(s)</t>
-  </si>
-  <si>
-    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(256000A2.17) Ability to (a) predict the impacts of the following on the (SF2 CDS) CONDENSATE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Feedwater heater string trip</t>
-  </si>
-  <si>
-    <t>(202002) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(245000A2.04) Ability to (a) predict the impacts of the following on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
-  </si>
-  <si>
-    <t>(G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.19) EQUIPMENT CONTROL Knowledge of maintenance work order requirements (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295035EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(209001A2.06) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate system flow</t>
+  </si>
+  <si>
+    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(209002A2.08) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate system flow</t>
+  </si>
+  <si>
+    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(239001A2.13) Ability to (a) predict the impacts of the following on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High reactor water level </t>
+  </si>
+  <si>
+    <t>(268000) (SF9 RW) RADWASTE SYSTEM (G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(201005A2.05) Ability to (a) predict the impacts of the following on the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6 / 45.8) Insert required</t>
+  </si>
+  <si>
+    <t>(G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
+  </si>
+  <si>
+    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
   </si>
   <si>
     <t>(G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
   </si>
   <si>
-    <t>(G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>K2</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>K2</t>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>K5</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>K5</t>
+    <t>A4</t>
   </si>
   <si>
     <t>K4</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,67 +385,67 @@
     <t>T</t>
   </si>
   <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
     <t>295038</t>
   </si>
   <si>
-    <t>600000</t>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295001</t>
   </si>
   <si>
     <t>295031</t>
   </si>
   <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295011</t>
+    <t>295022</t>
   </si>
   <si>
     <t>295002</t>
@@ -454,148 +454,148 @@
     <t>295009</t>
   </si>
   <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>295022</t>
-  </si>
-  <si>
-    <t>295020</t>
+    <t>295014</t>
+  </si>
+  <si>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>215003</t>
   </si>
   <si>
     <t>209001</t>
   </si>
   <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
     <t>215005</t>
   </si>
   <si>
-    <t>218000</t>
+    <t>400000</t>
   </si>
   <si>
     <t>205000</t>
   </si>
   <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>264000</t>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>263000</t>
   </si>
   <si>
     <t>212000</t>
   </si>
   <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
     <t>290001</t>
   </si>
   <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>226001</t>
-  </si>
-  <si>
-    <t>223001</t>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>241000</t>
   </si>
   <si>
     <t>216000</t>
   </si>
   <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295035</t>
+  </si>
+  <si>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
     <t>201005</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>295008</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>245000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,7 +1443,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D29" t="s">
         <v>111</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1582,7 +1582,7 @@
         <v>4.6</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,7 +1630,7 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="D40" t="s">
         <v>111</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D44" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1786,7 +1786,7 @@
         <v>3.8</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,7 +1817,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D51" t="s">
         <v>111</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1871,7 +1871,7 @@
         <v>3.7</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,7 +1919,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="D57" t="s">
         <v>111</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D61" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,7 +2276,7 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D78" t="s">
         <v>107</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="D83" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,7 +2395,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D85" t="s">
         <v>107</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,7 +2446,7 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D88" t="s">
         <v>107</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,7 +2480,7 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D90" t="s">
         <v>107</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,7 +2514,7 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D92" t="s">
         <v>107</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D93" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,7 +2548,7 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D94" t="s">
         <v>107</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
